--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12F64A13-6606-4A46-A3F9-577AC00CD2EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46247BD7-697D-4CC7-ABB9-B20C0C4CCAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="1416" yWindow="1188" windowWidth="21624" windowHeight="11052" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781ED0F0-B3B3-4EEF-A0AA-2B74EB382585}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,13 +734,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>115.4</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>106.5</v>
+        <v>113.8</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -751,13 +751,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>134.9</v>
+        <v>135.4</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>138.9</v>
+        <v>138.5</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -768,13 +768,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>110.4</v>
+        <v>125.2</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>127.2</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -785,13 +785,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>130</v>
+        <v>103.2</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>126.9</v>
+        <v>132.5</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -803,13 +803,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>116.4</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>116</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -821,13 +821,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>105.9</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>121.2</v>
+        <v>120.4</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -857,13 +857,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>132.05454545454543</v>
+      <c r="E9" s="2">
+        <v>132.15600000000001</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -874,14 +874,14 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="1">
-        <v>133.85636363636365</v>
+      <c r="C10" s="2">
+        <v>140.67320000000001</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="1">
-        <v>132.92909090909092</v>
+      <c r="E10" s="2">
+        <v>135.09209999999999</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -892,14 +892,14 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>137.30545454545452</v>
+      <c r="C11" s="2">
+        <v>133.333</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1">
-        <v>123.8</v>
+      <c r="E11" s="2">
+        <v>124.724</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -910,8 +910,8 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="1">
-        <v>137.28181818181818</v>
+      <c r="C12" s="2">
+        <v>134.54560000000001</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -928,14 +928,14 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="1">
-        <v>106</v>
+      <c r="C13" s="2">
+        <v>125.36712</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="1">
-        <v>125.06</v>
+      <c r="E13" s="2">
+        <v>128.678</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -947,7 +947,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>132.05454545454543</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1000,8 +1000,8 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1">
-        <v>132.92909090909092</v>
+      <c r="C17" s="2">
+        <v>135.09209999999999</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -1018,13 +1018,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1">
-        <v>100</v>
+      <c r="E18" s="2">
+        <v>125.36712</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,13 +1035,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>130</v>
+        <v>129.87200000000001</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1">
-        <v>123</v>
+        <v>126.72</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1054,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46247BD7-697D-4CC7-ABB9-B20C0C4CCAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1A0764-C2F1-4883-AFB3-190CDB574BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1416" yWindow="1188" windowWidth="21624" windowHeight="11052" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11052" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -171,10 +171,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -696,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781ED0F0-B3B3-4EEF-A0AA-2B74EB382585}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,7 +764,7 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>125.2</v>
+        <v>125.3</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -827,7 +823,7 @@
         <v>4</v>
       </c>
       <c r="E7">
-        <v>120.4</v>
+        <v>120.7</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -857,13 +853,13 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="2">
-        <v>132.15600000000001</v>
+      <c r="E9" s="1">
+        <v>132.05454545454543</v>
       </c>
       <c r="J9" s="1"/>
     </row>
@@ -874,14 +870,14 @@
       <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="2">
-        <v>140.67320000000001</v>
+      <c r="C10" s="1">
+        <v>140</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="2">
-        <v>135.09209999999999</v>
+      <c r="E10" s="1">
+        <v>132.92909090909092</v>
       </c>
       <c r="J10" s="1"/>
     </row>
@@ -892,14 +888,14 @@
       <c r="B11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
-        <v>133.333</v>
+      <c r="C11" s="1">
+        <v>133</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2">
-        <v>124.724</v>
+      <c r="E11" s="1">
+        <v>123.8</v>
       </c>
       <c r="J11" s="1"/>
     </row>
@@ -910,14 +906,14 @@
       <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="2">
-        <v>134.54560000000001</v>
+      <c r="C12" s="1">
+        <v>137.28181818181818</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>132.50363636363636</v>
+        <v>132.5</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -928,14 +924,14 @@
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2">
-        <v>125.36712</v>
+      <c r="C13" s="1">
+        <v>125.37</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2">
-        <v>128.678</v>
+      <c r="E13" s="1">
+        <v>125.06</v>
       </c>
       <c r="J13" s="1"/>
     </row>
@@ -947,7 +943,7 @@
         <v>5</v>
       </c>
       <c r="C14" s="1">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
         <v>4</v>
@@ -983,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="1">
-        <v>128</v>
+        <v>132.05454545454543</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -1000,8 +996,8 @@
       <c r="B17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="2">
-        <v>135.09209999999999</v>
+      <c r="C17" s="1">
+        <v>132.92909090909092</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -1018,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="C18" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="2">
-        <v>125.36712</v>
+      <c r="E18" s="1">
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1035,13 +1031,13 @@
         <v>9</v>
       </c>
       <c r="C19" s="1">
-        <v>129.87200000000001</v>
+        <v>130</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" s="1">
-        <v>126.72</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1054,7 +1050,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E1A0764-C2F1-4883-AFB3-190CDB574BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF80450B-D968-4C70-BB54-8BC321A4DCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11052" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781ED0F0-B3B3-4EEF-A0AA-2B74EB382585}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,13 +730,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>115.4</v>
+        <v>136.30000000000001</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>113.8</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -747,13 +747,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>135.4</v>
+        <v>138.4</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>138.5</v>
+        <v>122.6</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -764,13 +764,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>125.3</v>
+        <v>134.19999999999999</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>125</v>
+        <v>145.5</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -781,13 +781,13 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>103.2</v>
+        <v>80.2</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>132.5</v>
+        <v>106.8</v>
       </c>
       <c r="J5" s="1"/>
     </row>
@@ -799,13 +799,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>116.4</v>
+        <v>149.4</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
       </c>
       <c r="E6">
-        <v>134.19999999999999</v>
+        <v>144.30000000000001</v>
       </c>
       <c r="J6" s="1"/>
     </row>
@@ -817,13 +817,13 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>105.9</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>120.7</v>
+        <v>89.5</v>
       </c>
       <c r="J7" s="1"/>
     </row>
@@ -871,7 +871,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>140</v>
+        <v>133.85636363636365</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -889,7 +889,7 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>133</v>
+        <v>137.30545454545452</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -913,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="1">
-        <v>132.5</v>
+        <v>132.50363636363636</v>
       </c>
       <c r="J12" s="1"/>
     </row>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="1">
-        <v>125.37</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF80450B-D968-4C70-BB54-8BC321A4DCE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{CB656E3A-83BD-48F3-91DB-EA2499FA2A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11052" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
   <si>
     <t>The St. Brown Boy</t>
   </si>
@@ -493,7 +493,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,10 +523,10 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1452.6</v>
+        <v>1562.6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -537,10 +537,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>1493.38</v>
+        <v>1625.58</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -551,10 +551,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>1510.36</v>
+        <v>1654.62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -562,13 +562,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>1369.84</v>
+        <v>1476.6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -579,10 +579,10 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>1510.1</v>
+        <v>1599.6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -590,13 +590,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>1469.22</v>
+        <v>1598.84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -604,13 +604,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1472.42</v>
+        <v>1617.4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -618,13 +618,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>1375.66</v>
+        <v>1522.02</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -632,13 +632,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10">
-        <v>1462.22</v>
+        <v>1628.54</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -649,10 +649,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>1457.54</v>
+        <v>1540.72</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -663,10 +663,10 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>1361.28</v>
+        <v>1491.7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -674,13 +674,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C13">
         <v>11</v>
       </c>
       <c r="D13">
-        <v>1080.6600000000001</v>
+        <v>1221.32</v>
       </c>
     </row>
   </sheetData>
@@ -690,10 +690,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781ED0F0-B3B3-4EEF-A0AA-2B74EB382585}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -724,320 +724,215 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>128.1</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>136.30000000000001</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>111</v>
-      </c>
+      <c r="E2" s="1">
+        <v>126.4</v>
+      </c>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>138.4</v>
+        <v>151.30000000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>122.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>141.1</v>
+      </c>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>134.19999999999999</v>
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>145.19999999999999</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>145.5</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>140.6</v>
+      </c>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5">
-        <v>80.2</v>
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>137.80000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>106.8</v>
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>133</v>
       </c>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>149.4</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>134.55000000000001</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>144.30000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="1">
+        <v>126.2</v>
       </c>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7">
-        <v>133</v>
+      <c r="C7" s="1">
+        <v>125.8</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>89.5</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>124</v>
       </c>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="1">
+        <v>133.85636363636365</v>
+      </c>
+      <c r="D9" t="s">
         <v>1</v>
       </c>
-      <c r="C9">
-        <v>145</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
       <c r="E9" s="1">
-        <v>132.05454545454543</v>
+        <v>135</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>133.85636363636365</v>
+        <v>136</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1">
-        <v>132.92909090909092</v>
+        <v>124.53090909090908</v>
       </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
+        <v>138</v>
+      </c>
+      <c r="D11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="1">
-        <v>137.30545454545452</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" s="1">
-        <v>123.8</v>
-      </c>
-      <c r="J11" s="1"/>
+        <v>135.21234000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1">
-        <v>137.28181818181818</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E12" s="1">
-        <v>132.50363636363636</v>
-      </c>
-      <c r="J12" s="1"/>
+        <v>124.67843000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="1">
-        <v>106</v>
+        <v>126.2123</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" s="1">
-        <v>125.06</v>
-      </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="1">
-        <v>137.28181818181818</v>
-      </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>133.85636363636365</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>135</v>
-      </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="1">
-        <v>132.05454545454543</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>124.53090909090908</v>
-      </c>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="1">
-        <v>132.92909090909092</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>14</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>121</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>14</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="1">
-        <v>123</v>
+        <v>125.78230000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1050,7 +945,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,13 +973,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>132.15600000000001</v>
+        <v>141.1</v>
       </c>
       <c r="C2" s="2">
-        <v>132.15600000000001</v>
+        <v>141.1</v>
       </c>
       <c r="D2" s="2">
-        <v>132.15600000000001</v>
+        <v>141.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1092,13 +987,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>147</v>
+        <v>148.23419999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>147</v>
+        <v>148.23419999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>147</v>
+        <v>148.23419999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1106,13 +1001,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>133.333</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>133.333</v>
+        <v>137.80000000000001</v>
       </c>
       <c r="D4" s="2">
-        <v>133.333</v>
+        <v>137.80000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1120,13 +1015,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>133.12129999999999</v>
+        <v>128.1</v>
       </c>
       <c r="C5" s="2">
-        <v>133.12129999999999</v>
+        <v>128.1</v>
       </c>
       <c r="D5" s="2">
-        <v>133.12129999999999</v>
+        <v>128.1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1148,13 +1043,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>126.23399999999999</v>
+        <v>126.4</v>
       </c>
       <c r="C7" s="2">
-        <v>126.23399999999999</v>
+        <v>126.4</v>
       </c>
       <c r="D7" s="2">
-        <v>126.23399999999999</v>
+        <v>126.4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1162,13 +1057,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>140.67320000000001</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>140.67320000000001</v>
+        <v>145.19999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>140.67320000000001</v>
+        <v>145.19999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1176,13 +1071,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>128.678</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2">
-        <v>128.678</v>
+        <v>124</v>
       </c>
       <c r="D9" s="2">
-        <v>128.678</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1190,13 +1085,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>135.09209999999999</v>
+        <v>140.6</v>
       </c>
       <c r="C10" s="2">
-        <v>135.09209999999999</v>
+        <v>140.6</v>
       </c>
       <c r="D10" s="2">
-        <v>135.09209999999999</v>
+        <v>140.6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1204,13 +1099,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>132.50363636363636</v>
+        <v>126.2</v>
       </c>
       <c r="C11" s="2">
-        <v>132.50363636363636</v>
+        <v>126.2</v>
       </c>
       <c r="D11" s="2">
-        <v>132.50363636363636</v>
+        <v>126.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1218,13 +1113,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>124.724</v>
+        <v>133</v>
       </c>
       <c r="C12" s="2">
-        <v>124.724</v>
+        <v>133</v>
       </c>
       <c r="D12" s="2">
-        <v>124.724</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1232,13 +1127,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>125.36712</v>
+        <v>125.8</v>
       </c>
       <c r="C13" s="2">
-        <v>125.36712</v>
+        <v>125.8</v>
       </c>
       <c r="D13" s="2">
-        <v>125.36712</v>
+        <v>125.8</v>
       </c>
     </row>
   </sheetData>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{CB656E3A-83BD-48F3-91DB-EA2499FA2A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{67DFB1EC-A2AC-4A7E-B281-AA8D8EC00BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
-    <sheet name="Schedule" sheetId="3" r:id="rId2"/>
-    <sheet name="Playoffs" sheetId="4" r:id="rId3"/>
-    <sheet name="ScoringData" sheetId="2" r:id="rId4"/>
+    <sheet name="Final" sheetId="5" r:id="rId2"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
+    <sheet name="Playoffs" sheetId="4" r:id="rId4"/>
+    <sheet name="ScoringData" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
   <si>
     <t>The St. Brown Boy</t>
   </si>
@@ -114,6 +115,12 @@
   </si>
   <si>
     <t>R3</t>
+  </si>
+  <si>
+    <t>Baker Mayzyn</t>
+  </si>
+  <si>
+    <t>ElonGPT o1-mini</t>
   </si>
 </sst>
 </file>
@@ -493,7 +500,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,10 +696,154 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10720CD-65F5-4956-80A2-A67CB4A00F86}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1723.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1716.82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>1927.06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1619.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1886.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1869.58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1827.66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>1722.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781ED0F0-B3B3-4EEF-A0AA-2B74EB382585}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -940,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BAA41-69DE-4CC5-8AFD-D86F70A348FE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -1141,7 +1292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8D808-5879-4FD8-B718-20BB569566E3}">
   <dimension ref="A1:A121"/>
   <sheetViews>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{67DFB1EC-A2AC-4A7E-B281-AA8D8EC00BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{5C4B655A-B64B-478F-8364-A9D8C38CC63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>The St. Brown Boy</t>
   </si>
@@ -697,15 +697,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10720CD-65F5-4956-80A2-A67CB4A00F86}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -832,6 +832,62 @@
       </c>
       <c r="D9">
         <v>1722.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>1334</v>
       </c>
     </row>
   </sheetData>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{5C4B655A-B64B-478F-8364-A9D8C38CC63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{BCA4B8BC-8745-4681-A393-20D019194AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11052" activeTab="3" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>The St. Brown Boy</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Baker Mayzyn</t>
-  </si>
-  <si>
-    <t>ElonGPT o1-mini</t>
   </si>
 </sst>
 </file>
@@ -699,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10720CD-65F5-4956-80A2-A67CB4A00F86}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -822,7 +819,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1151,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BAA41-69DE-4CC5-8AFD-D86F70A348FE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1180,13 +1177,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>141.1</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="C2" s="2">
-        <v>141.1</v>
+        <v>143.19999999999999</v>
       </c>
       <c r="D2" s="2">
-        <v>141.1</v>
+        <v>143.19999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1194,13 +1191,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>148.23419999999999</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="C3" s="2">
-        <v>148.23419999999999</v>
+        <v>148.19999999999999</v>
       </c>
       <c r="D3" s="2">
-        <v>148.23419999999999</v>
+        <v>148.19999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1208,13 +1205,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>137.80000000000001</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2">
-        <v>137.80000000000001</v>
+        <v>134</v>
       </c>
       <c r="D4" s="2">
-        <v>137.80000000000001</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1222,13 +1219,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>128.1</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="C5" s="2">
-        <v>128.1</v>
+        <v>135.80000000000001</v>
       </c>
       <c r="D5" s="2">
-        <v>128.1</v>
+        <v>135.80000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1236,13 +1233,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>134.54560000000001</v>
+        <v>124.8</v>
       </c>
       <c r="C6" s="2">
-        <v>134.54560000000001</v>
+        <v>124.8</v>
       </c>
       <c r="D6" s="2">
-        <v>134.54560000000001</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1250,13 +1247,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>126.4</v>
+        <v>126.3</v>
       </c>
       <c r="C7" s="2">
-        <v>126.4</v>
+        <v>126.3</v>
       </c>
       <c r="D7" s="2">
-        <v>126.4</v>
+        <v>126.3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1264,13 +1261,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>145.19999999999999</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>145.19999999999999</v>
+        <v>154.19999999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>145.19999999999999</v>
+        <v>154.19999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1278,13 +1275,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>124</v>
+        <v>128.4</v>
       </c>
       <c r="C9" s="2">
-        <v>124</v>
+        <v>128.4</v>
       </c>
       <c r="D9" s="2">
-        <v>124</v>
+        <v>128.4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1292,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>140.6</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2">
-        <v>140.6</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2">
-        <v>140.6</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1306,13 +1303,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>126.2</v>
+        <v>127.2</v>
       </c>
       <c r="C11" s="2">
-        <v>126.2</v>
+        <v>127.2</v>
       </c>
       <c r="D11" s="2">
-        <v>126.2</v>
+        <v>127.2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1320,13 +1317,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>133</v>
+        <v>130.4</v>
       </c>
       <c r="C12" s="2">
-        <v>133</v>
+        <v>130.4</v>
       </c>
       <c r="D12" s="2">
-        <v>133</v>
+        <v>130.4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1334,13 +1331,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>125.8</v>
+        <v>128.6</v>
       </c>
       <c r="C13" s="2">
-        <v>125.8</v>
+        <v>128.6</v>
       </c>
       <c r="D13" s="2">
-        <v>125.8</v>
+        <v>128.6</v>
       </c>
     </row>
   </sheetData>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{BCA4B8BC-8745-4681-A393-20D019194AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{17A1DA45-67B0-41A3-914B-5A095CEA3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21624" windowHeight="11052" activeTab="3" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
     <sheet name="Final" sheetId="5" r:id="rId2"/>
-    <sheet name="Schedule" sheetId="3" r:id="rId3"/>
-    <sheet name="Playoffs" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoffs" sheetId="4" r:id="rId3"/>
+    <sheet name="Schedule" sheetId="3" r:id="rId4"/>
     <sheet name="ScoringData" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -697,7 +697,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,6 +893,207 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BAA41-69DE-4CC5-8AFD-D86F70A348FE}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="C2" s="2">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>143.19999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="C3" s="2">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="D3" s="2">
+        <v>148.19999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2">
+        <v>134</v>
+      </c>
+      <c r="C4" s="2">
+        <v>134</v>
+      </c>
+      <c r="D4" s="2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="C5" s="2">
+        <v>135.80000000000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>135.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="D6" s="2">
+        <v>124.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>126.3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>126.3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>126.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>154.19999999999999</v>
+      </c>
+      <c r="D8" s="2">
+        <v>154.19999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>128.4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>128.4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>128.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>147</v>
+      </c>
+      <c r="C10" s="2">
+        <v>147</v>
+      </c>
+      <c r="D10" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>127.2</v>
+      </c>
+      <c r="C11" s="2">
+        <v>127.2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>130.4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>130.4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>128.6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>128.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{781ED0F0-B3B3-4EEF-A0AA-2B74EB382585}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -1144,207 +1345,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BAA41-69DE-4CC5-8AFD-D86F70A348FE}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="C2" s="2">
-        <v>143.19999999999999</v>
-      </c>
-      <c r="D2" s="2">
-        <v>143.19999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>148.19999999999999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>148.19999999999999</v>
-      </c>
-      <c r="D3" s="2">
-        <v>148.19999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>134</v>
-      </c>
-      <c r="C4" s="2">
-        <v>134</v>
-      </c>
-      <c r="D4" s="2">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="C5" s="2">
-        <v>135.80000000000001</v>
-      </c>
-      <c r="D5" s="2">
-        <v>135.80000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="C6" s="2">
-        <v>124.8</v>
-      </c>
-      <c r="D6" s="2">
-        <v>124.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2">
-        <v>126.3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>126.3</v>
-      </c>
-      <c r="D7" s="2">
-        <v>126.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>154.19999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>154.19999999999999</v>
-      </c>
-      <c r="D8" s="2">
-        <v>154.19999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2">
-        <v>128.4</v>
-      </c>
-      <c r="C9" s="2">
-        <v>128.4</v>
-      </c>
-      <c r="D9" s="2">
-        <v>128.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2">
-        <v>147</v>
-      </c>
-      <c r="C10" s="2">
-        <v>147</v>
-      </c>
-      <c r="D10" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2">
-        <v>127.2</v>
-      </c>
-      <c r="C11" s="2">
-        <v>127.2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>127.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2">
-        <v>130.4</v>
-      </c>
-      <c r="C12" s="2">
-        <v>130.4</v>
-      </c>
-      <c r="D12" s="2">
-        <v>130.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>128.6</v>
-      </c>
-      <c r="C13" s="2">
-        <v>128.6</v>
-      </c>
-      <c r="D13" s="2">
-        <v>128.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE8D808-5879-4FD8-B718-20BB569566E3}">
   <dimension ref="A1:A121"/>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{17A1DA45-67B0-41A3-914B-5A095CEA3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{C22AE707-96CE-49AB-94DB-5F826FF298D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Records" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
   <si>
     <t>The St. Brown Boy</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Baker Mayzyn</t>
+  </si>
+  <si>
+    <t>Baker Mayzen</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10720CD-65F5-4956-80A2-A67CB4A00F86}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -730,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1723.92</v>
+        <v>1726.44</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -744,7 +747,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1716.82</v>
+        <v>1721.12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -777,7 +780,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -786,12 +789,12 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>1886.62</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B7">
         <v>8</v>
@@ -800,7 +803,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>1869.58</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -896,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5BAA41-69DE-4CC5-8AFD-D86F70A348FE}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,13 +928,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>143.19999999999999</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="C2" s="2">
-        <v>143.19999999999999</v>
+        <v>141.80000000000001</v>
       </c>
       <c r="D2" s="2">
-        <v>143.19999999999999</v>
+        <v>141.80000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -939,13 +942,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>148.19999999999999</v>
+        <v>148.1</v>
       </c>
       <c r="C3" s="2">
-        <v>148.19999999999999</v>
+        <v>148.1</v>
       </c>
       <c r="D3" s="2">
-        <v>148.19999999999999</v>
+        <v>148.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,13 +984,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>124.8</v>
+        <v>122</v>
       </c>
       <c r="C6" s="2">
-        <v>124.8</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2">
-        <v>124.8</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -995,13 +998,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>126.3</v>
+        <v>126.1</v>
       </c>
       <c r="C7" s="2">
-        <v>126.3</v>
+        <v>126.1</v>
       </c>
       <c r="D7" s="2">
-        <v>126.3</v>
+        <v>126.1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1009,13 +1012,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>154.19999999999999</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="C8" s="2">
-        <v>154.19999999999999</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="D8" s="2">
-        <v>154.19999999999999</v>
+        <v>155.80000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,13 +1026,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>128.4</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>128.4</v>
+        <v>128.69999999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>128.4</v>
+        <v>128.69999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,13 +1040,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>147</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>147</v>
+        <v>146.80000000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>147</v>
+        <v>146.80000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,13 +1068,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>130.4</v>
+        <v>129.5</v>
       </c>
       <c r="C12" s="2">
-        <v>130.4</v>
+        <v>129.5</v>
       </c>
       <c r="D12" s="2">
-        <v>130.4</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1079,13 +1082,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="2">
-        <v>128.6</v>
+        <v>130.1</v>
       </c>
       <c r="C13" s="2">
-        <v>128.6</v>
+        <v>130.1</v>
       </c>
       <c r="D13" s="2">
-        <v>128.6</v>
+        <v>130.1</v>
       </c>
     </row>
   </sheetData>

--- a/Fantasy.xlsx
+++ b/Fantasy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bentleyedu-my.sharepoint.com/personal/fcastagliuolo_falcon_bentley_edu/Documents/DataMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{C22AE707-96CE-49AB-94DB-5F826FF298D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9904DD36-47BB-41A5-86DD-CD500EF106FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{C2CD257B-A1E1-4D9A-A356-CA0FA94DFB9D}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>The St. Brown Boy</t>
   </si>
@@ -118,9 +118,6 @@
   </si>
   <si>
     <t>Baker Mayzyn</t>
-  </si>
-  <si>
-    <t>Baker Mayzen</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,7 +791,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7">
         <v>8</v>
